--- a/Hicks-Henne deformation of 2d airfoil/foil.xlsx
+++ b/Hicks-Henne deformation of 2d airfoil/foil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - BUET\Desktop\Deform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - BUET\Desktop\Deform\Hicks-Henne deformation of 2d airfoil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{57713B53-E9E5-4019-9D4F-3D9B78E21A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94072235-4D2B-4571-9F67-4B8F7373FCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foil" sheetId="1" r:id="rId1"/>
@@ -130,16 +130,16 @@
     <t>(0.95,-0.0016),</t>
   </si>
   <si>
-    <t>x4412</t>
-  </si>
-  <si>
-    <t>y4412</t>
+    <t>x0012</t>
+  </si>
+  <si>
+    <t>y0012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,10 +617,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,30 +976,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1010,16 +1009,15 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.95</v>
       </c>
@@ -1029,16 +1027,15 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.99845899999999999</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>1.4760000000000001E-3</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.9</v>
       </c>
@@ -1048,16 +1045,15 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.99384399999999995</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>2.1199999999999999E-3</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.8</v>
       </c>
@@ -1067,16 +1063,15 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.98618499999999998</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>3.1819999999999999E-3</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.7</v>
       </c>
@@ -1086,16 +1081,15 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.97552799999999995</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>4.6420000000000003E-3</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -1105,16 +1099,15 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.96194000000000002</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>6.4780000000000003E-3</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.5</v>
       </c>
@@ -1124,16 +1117,15 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.94550299999999998</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>8.6580000000000008E-3</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.4</v>
       </c>
@@ -1143,16 +1135,15 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.92632000000000003</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>1.1148999999999999E-2</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.3</v>
       </c>
@@ -1162,16 +1153,15 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.90450799999999998</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>1.3913999999999999E-2</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.25</v>
       </c>
@@ -1181,16 +1171,15 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>0.88020299999999996</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>1.6913999999999998E-2</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.2</v>
       </c>
@@ -1200,16 +1189,15 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>0.85355300000000001</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>2.0107E-2</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.15</v>
       </c>
@@ -1219,16 +1207,15 @@
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>0.82472400000000001</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>2.3452000000000001E-2</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.1</v>
       </c>
@@ -1238,16 +1225,15 @@
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>0.79389299999999996</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>2.6904999999999998E-2</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -1257,16 +1243,15 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>0.76124899999999995</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>3.0422999999999999E-2</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.05</v>
       </c>
@@ -1276,16 +1261,15 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>0.72699499999999995</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>3.3961999999999999E-2</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -1295,16 +1279,15 @@
       <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>0.69134200000000001</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>3.7476000000000002E-2</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -1314,16 +1297,15 @@
       <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>0.65450799999999998</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>4.0917000000000002E-2</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1333,16 +1315,15 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>0.61672300000000002</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>4.4236999999999999E-2</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -1352,16 +1333,15 @@
       <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>0.57821699999999998</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>4.7383000000000002E-2</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -1371,16 +1351,15 @@
       <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>0.53922999999999999</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>5.0301999999999999E-2</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.05</v>
       </c>
@@ -1390,16 +1369,15 @@
       <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>0.5</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>5.2940000000000001E-2</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -1409,16 +1387,15 @@
       <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>0.46077000000000001</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>5.5240999999999998E-2</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.1</v>
       </c>
@@ -1428,16 +1405,15 @@
       <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>0.42178300000000002</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>5.7147999999999997E-2</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.15</v>
       </c>
@@ -1447,16 +1423,15 @@
       <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>0.38327699999999998</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>5.8609000000000001E-2</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.2</v>
       </c>
@@ -1466,16 +1441,15 @@
       <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>0.34549200000000002</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>5.9575000000000003E-2</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.25</v>
       </c>
@@ -1485,16 +1459,15 @@
       <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>0.30865799999999999</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>0.06</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.3</v>
       </c>
@@ -1504,16 +1477,15 @@
       <c r="D28" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>0.273005</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>5.9847999999999998E-2</v>
       </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.4</v>
       </c>
@@ -1523,16 +1495,15 @@
       <c r="D29" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>0.23875099999999999</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>5.9091999999999999E-2</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.5</v>
       </c>
@@ -1542,16 +1513,15 @@
       <c r="D30" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>0.20610700000000001</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>5.7714000000000001E-2</v>
       </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.6</v>
       </c>
@@ -1561,16 +1531,15 @@
       <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>0.17527599999999999</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>5.5709000000000002E-2</v>
       </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.7</v>
       </c>
@@ -1580,16 +1549,15 @@
       <c r="D32" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>0.14644699999999999</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>5.3082999999999998E-2</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.8</v>
       </c>
@@ -1599,16 +1567,15 @@
       <c r="D33" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>0.119797</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>4.9854000000000002E-2</v>
       </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.9</v>
       </c>
@@ -1618,16 +1585,15 @@
       <c r="D34" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>9.5491999999999994E-2</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>4.6049E-2</v>
       </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.95</v>
       </c>
@@ -1637,16 +1603,15 @@
       <c r="D35" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>7.3679999999999995E-2</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>4.1704999999999999E-2</v>
       </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1656,554 +1621,487 @@
       <c r="D36" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>5.4496999999999997E-2</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>3.6866999999999997E-2</v>
       </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H37" s="2">
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H37" s="1">
         <v>3.8059999999999997E-2</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
         <v>3.1579999999999997E-2</v>
       </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H38" s="2">
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H38" s="1">
         <v>2.4472000000000001E-2</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>2.5892999999999999E-2</v>
       </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H39" s="2">
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H39" s="1">
         <v>1.3814999999999999E-2</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>1.9854E-2</v>
       </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H40" s="2">
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H40" s="1">
         <v>6.156E-3</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>1.3502999999999999E-2</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H41" s="2">
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H41" s="1">
         <v>1.5410000000000001E-3</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>6.8770000000000003E-3</v>
       </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H42" s="2">
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H42" s="1">
         <v>0</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H43" s="2">
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H43" s="1">
         <v>1.5410000000000001E-3</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43">
         <v>-6.8770000000000003E-3</v>
       </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H44" s="2">
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H44" s="1">
         <v>6.156E-3</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
         <v>-1.3502999999999999E-2</v>
       </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H45" s="2">
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H45" s="1">
         <v>1.3814999999999999E-2</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>-1.9854E-2</v>
       </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H46" s="2">
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H46" s="1">
         <v>2.4472000000000001E-2</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>-2.5892999999999999E-2</v>
       </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H47" s="2">
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H47" s="1">
         <v>3.8059999999999997E-2</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>-3.1579999999999997E-2</v>
       </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H48" s="2">
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H48" s="1">
         <v>5.4496999999999997E-2</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>-3.6866999999999997E-2</v>
       </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H49" s="2">
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H49" s="1">
         <v>7.3679999999999995E-2</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>-4.1704999999999999E-2</v>
       </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H50" s="2">
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H50" s="1">
         <v>9.5491999999999994E-2</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50">
         <v>-4.6049E-2</v>
       </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H51" s="2">
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H51" s="1">
         <v>0.119797</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>-4.9854000000000002E-2</v>
       </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H52" s="2">
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H52" s="1">
         <v>0.14644699999999999</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52">
         <v>-5.3082999999999998E-2</v>
       </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H53" s="2">
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H53" s="1">
         <v>0.17527599999999999</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>-5.5709000000000002E-2</v>
       </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H54" s="2">
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H54" s="1">
         <v>0.20610700000000001</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54">
         <v>-5.7714000000000001E-2</v>
       </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H55" s="2">
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H55" s="1">
         <v>0.23875099999999999</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
         <v>-5.9091999999999999E-2</v>
       </c>
-      <c r="L55" s="2"/>
-      <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H56" s="2">
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H56" s="1">
         <v>0.273005</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>-5.9847999999999998E-2</v>
       </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H57" s="2">
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H57" s="1">
         <v>0.30865799999999999</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
         <v>-0.06</v>
       </c>
-      <c r="L57" s="2"/>
-      <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H58" s="2">
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H58" s="1">
         <v>0.34549200000000002</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58">
         <v>-5.9575000000000003E-2</v>
       </c>
-      <c r="L58" s="2"/>
-      <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H59" s="2">
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H59" s="1">
         <v>0.38327699999999998</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59">
         <v>-5.8609000000000001E-2</v>
       </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H60" s="2">
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H60" s="1">
         <v>0.42178300000000002</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60">
         <v>-5.7147999999999997E-2</v>
       </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H61" s="2">
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H61" s="1">
         <v>0.46077000000000001</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61">
         <v>-5.5240999999999998E-2</v>
       </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H62" s="2">
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H62" s="1">
         <v>0.5</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62">
         <v>-5.2940000000000001E-2</v>
       </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H63" s="2">
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H63" s="1">
         <v>0.53922999999999999</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63">
         <v>-5.0301999999999999E-2</v>
       </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H64" s="2">
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H64" s="1">
         <v>0.57821699999999998</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64">
         <v>-4.7383000000000002E-2</v>
       </c>
-      <c r="L64" s="2"/>
-      <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H65" s="2">
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H65" s="1">
         <v>0.61672300000000002</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65">
         <v>-4.4236999999999999E-2</v>
       </c>
-      <c r="L65" s="2"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H66" s="2">
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H66" s="1">
         <v>0.65450799999999998</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66">
         <v>-4.0917000000000002E-2</v>
       </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H67" s="2">
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H67" s="1">
         <v>0.69134200000000001</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67">
         <v>-3.7476000000000002E-2</v>
       </c>
-      <c r="L67" s="2"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H68" s="2">
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H68" s="1">
         <v>0.72699499999999995</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68">
         <v>-3.3961999999999999E-2</v>
       </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H69" s="2">
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H69" s="1">
         <v>0.76124899999999995</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69">
         <v>-3.0422999999999999E-2</v>
       </c>
-      <c r="L69" s="2"/>
-      <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H70" s="2">
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H70" s="1">
         <v>0.79389299999999996</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70">
         <v>-2.6904999999999998E-2</v>
       </c>
-      <c r="L70" s="2"/>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H71" s="2">
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H71" s="1">
         <v>0.82472400000000001</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71">
         <v>-2.3452000000000001E-2</v>
       </c>
-      <c r="L71" s="2"/>
-      <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H72" s="2">
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H72" s="1">
         <v>0.85355300000000001</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72">
         <v>-2.0107E-2</v>
       </c>
-      <c r="L72" s="2"/>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H73" s="2">
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H73" s="1">
         <v>0.88020299999999996</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73">
         <v>-1.6913999999999998E-2</v>
       </c>
-      <c r="L73" s="2"/>
-      <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H74" s="2">
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H74" s="1">
         <v>0.90450799999999998</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74">
         <v>-1.3913999999999999E-2</v>
       </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H75" s="2">
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H75" s="1">
         <v>0.92632000000000003</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75">
         <v>-1.1148999999999999E-2</v>
       </c>
-      <c r="L75" s="2"/>
-      <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H76" s="2">
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H76" s="1">
         <v>0.94550299999999998</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76">
         <v>-8.6580000000000008E-3</v>
       </c>
-      <c r="L76" s="2"/>
-      <c r="M76" s="1"/>
-    </row>
-    <row r="77" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H77" s="2">
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H77" s="1">
         <v>0.96194000000000002</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77">
         <v>-6.4780000000000003E-3</v>
       </c>
-      <c r="L77" s="2"/>
-      <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H78" s="2">
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H78" s="1">
         <v>0.97552799999999995</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78">
         <v>-4.6420000000000003E-3</v>
       </c>
-      <c r="L78" s="2"/>
-      <c r="M78" s="1"/>
-    </row>
-    <row r="79" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H79" s="2">
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H79" s="1">
         <v>0.98618499999999998</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79">
         <v>-3.1819999999999999E-3</v>
       </c>
-      <c r="L79" s="2"/>
-      <c r="M79" s="1"/>
-    </row>
-    <row r="80" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H80" s="2">
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H80" s="1">
         <v>0.99384399999999995</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80">
         <v>-2.1199999999999999E-3</v>
       </c>
-      <c r="L80" s="2"/>
-      <c r="M80" s="1"/>
-    </row>
-    <row r="81" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H81" s="2">
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H81" s="1">
         <v>0.99845899999999999</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81">
         <v>-1.4760000000000001E-3</v>
       </c>
-      <c r="L81" s="2"/>
-      <c r="M81" s="1"/>
-    </row>
-    <row r="82" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H82" s="2">
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H82" s="1">
         <v>1</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82">
         <v>-1.2600000000000001E-3</v>
       </c>
-      <c r="L82" s="2"/>
-      <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="L83" s="2"/>
-      <c r="M83" s="1"/>
-    </row>
-    <row r="84" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="L84" s="2"/>
-      <c r="M84" s="1"/>
-    </row>
-    <row r="85" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="L85" s="2"/>
-      <c r="M85" s="1"/>
-    </row>
-    <row r="86" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="L86" s="2"/>
-      <c r="M86" s="1"/>
-    </row>
-    <row r="87" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="L87" s="2"/>
-      <c r="M87" s="1"/>
-    </row>
-    <row r="88" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="L88" s="2"/>
-      <c r="M88" s="1"/>
-    </row>
-    <row r="89" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="L89" s="2"/>
-      <c r="M89" s="1"/>
-    </row>
-    <row r="90" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="L90" s="2"/>
-      <c r="M90" s="1"/>
-    </row>
-    <row r="91" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="L91" s="2"/>
-      <c r="M91" s="1"/>
-    </row>
-    <row r="92" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="L92" s="2"/>
-      <c r="M92" s="1"/>
-    </row>
-    <row r="93" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="L93" s="2"/>
-      <c r="M93" s="1"/>
-    </row>
-    <row r="94" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="L94" s="2"/>
-      <c r="M94" s="1"/>
-    </row>
-    <row r="95" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="L95" s="2"/>
-      <c r="M95" s="1"/>
-    </row>
-    <row r="96" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="L96" s="2"/>
-      <c r="M96" s="1"/>
-    </row>
-    <row r="97" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L97" s="2"/>
-      <c r="M97" s="1"/>
-    </row>
-    <row r="98" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L98" s="2"/>
-      <c r="M98" s="1"/>
-    </row>
-    <row r="99" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L99" s="2"/>
-      <c r="M99" s="1"/>
-    </row>
-    <row r="100" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L100" s="2"/>
-      <c r="M100" s="1"/>
-    </row>
-    <row r="101" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L101" s="2"/>
-      <c r="M101" s="1"/>
-    </row>
-    <row r="102" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L102" s="2"/>
-      <c r="M102" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L102" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
